--- a/导入数据.xlsx
+++ b/导入数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\童佳琪\Desktop\Git Repository\master\fei-ma-bank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7632C993-2F7F-4D74-8E98-25839D9DBB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12073F5-5E1A-41FC-ACE3-010C751B32E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="1350" windowWidth="16470" windowHeight="8670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="1300" windowWidth="16470" windowHeight="8670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,7 +51,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>身份证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456789012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13588231678</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13579</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -95,9 +111,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -379,48 +396,55 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>13579</v>
-      </c>
-      <c r="C2">
-        <v>15388321967</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1">
         <v>44562</v>
       </c>
     </row>
